--- a/biology/Zoologie/Cebus_cesarae/Cebus_cesarae.xlsx
+++ b/biology/Zoologie/Cebus_cesarae/Cebus_cesarae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sapajou du César (Cebus cesarae) est un singe capucin du nord de la Colombie. Considéré, jusqu'en 2012, comme une sous-espèce du capucin à front blanc (C. albifrons), son statut taxonomique est remis en cause à la suite des analyses génétiques réalisées par Jean Philippe Boubli qui révèlent que le sapajou du César est en réalité un proche parent du capucin moine Cebus capucinus et du capucin (à front blanc) varié Cebus versicolor (en)).
 </t>
@@ -511,11 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom vernaculaire utilisé dans les articles anglo-saxons est Rio Cesar White-fronted Capuchin (capucin à front blanc du Rio Cesar)[1]. En Colombie, on l'appelle Mico bayo ou Carita blanca[2]. Ce capucin est en outre désigné par les noms scientifiques suivants :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom vernaculaire utilisé dans les articles anglo-saxons est Rio Cesar White-fronted Capuchin (capucin à front blanc du Rio Cesar). En Colombie, on l'appelle Mico bayo ou Carita blanca. Ce capucin est en outre désigné par les noms scientifiques suivants :
 Cebus caesarae (Hershkovitz, 1949)
-Cebus albifrons caesarae (Hershkovitz, 1949)[3].</t>
+Cebus albifrons caesarae (Hershkovitz, 1949).</t>
         </is>
       </c>
     </row>
@@ -543,10 +557,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taxonomie de l'espèce est révisée en 2012, lors des études génétiques menées par Jean Philippe Boubli. Jusqu'à cette date, Cebus cesarae est considérée comme une sous-espèce du capucin à front blanc. Le Sapajou du Cesar est dès lors désigné comme un proche parent du capucin moine, du capucin varié, et d'autres cebinae de Colombie[4]. Certains auteurs le considèrent d'abord comme une sous-espèce du capucin varié, mais il est finalement admis comme espèce à part entière par la classification de l'UICN et de l'ITIS[5].
-Des études complémentaires réalisées en 2019, portant sur l'ADN mitochondrial, concluent toutefois que la distance génétique entre le capucin moine, le capucin varié et le capucin (à front blanc) de Santa Marta (Cebus albifrons malitiosus) est si faible et les hybridations si fréquentes qu'ils pourraient être considérés comme un complexe spécifique[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taxonomie de l'espèce est révisée en 2012, lors des études génétiques menées par Jean Philippe Boubli. Jusqu'à cette date, Cebus cesarae est considérée comme une sous-espèce du capucin à front blanc. Le Sapajou du Cesar est dès lors désigné comme un proche parent du capucin moine, du capucin varié, et d'autres cebinae de Colombie. Certains auteurs le considèrent d'abord comme une sous-espèce du capucin varié, mais il est finalement admis comme espèce à part entière par la classification de l'UICN et de l'ITIS.
+Des études complémentaires réalisées en 2019, portant sur l'ADN mitochondrial, concluent toutefois que la distance génétique entre le capucin moine, le capucin varié et le capucin (à front blanc) de Santa Marta (Cebus albifrons malitiosus) est si faible et les hybridations si fréquentes qu'ils pourraient être considérés comme un complexe spécifique.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sapajou du Río Cesar vit dans les forêts sèches semi-décidues, les forêts-galeries et les mangroves[1][2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sapajou du Río Cesar vit dans les forêts sèches semi-décidues, les forêts-galeries et les mangroves.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce capucin est uniquement présent dans les départements du Cesar, de la Magdalena et au sud de la Guajira, situés au Nord-Ouest de la Colombie[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce capucin est uniquement présent dans les départements du Cesar, de la Magdalena et au sud de la Guajira, situés au Nord-Ouest de la Colombie.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa fourrure est de couleur très claire, ce qui a très tôt permis de le distinguer de Cebus versicolor et des sous-espèces de Cebus albifrons[7]. Les mâles ont une longueur de tête et de corps comprise entre 30,8 et 40,7 cm et une queue longue de 41,9 à 49,5 cm. Les femelles ont une longueur de tête et de corps comprise entre 35,3 et 38,5 cm et une longueur de queue comprise entre 46,1 et 50 cm[1][8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa fourrure est de couleur très claire, ce qui a très tôt permis de le distinguer de Cebus versicolor et des sous-espèces de Cebus albifrons. Les mâles ont une longueur de tête et de corps comprise entre 30,8 et 40,7 cm et une queue longue de 41,9 à 49,5 cm. Les femelles ont une longueur de tête et de corps comprise entre 35,3 et 38,5 cm et une longueur de queue comprise entre 46,1 et 50 cm.
 </t>
         </is>
       </c>
@@ -668,9 +690,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sapajou du César est classé comme en danger par l'UICN[9]. Son habitat aurait régressé de 80 % entre le milieu du XXe siècle et les années 2010, du fait de l'exploitation minière, de l'élevage bovin et de la plantation de palmeraies à huile[10].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sapajou du César est classé comme en danger par l'UICN. Son habitat aurait régressé de 80 % entre le milieu du XXe siècle et les années 2010, du fait de l'exploitation minière, de l'élevage bovin et de la plantation de palmeraies à huile.
 </t>
         </is>
       </c>
